--- a/docs/OKR/2024Q3OKR.xlsx
+++ b/docs/OKR/2024Q3OKR.xlsx
@@ -95,11 +95,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,18 +130,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,9 +146,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +155,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,11 +176,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +230,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -219,42 +255,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,181 +275,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +558,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,15 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,6 +606,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,171 +650,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/docs/OKR/2024Q3OKR.xlsx
+++ b/docs/OKR/2024Q3OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13080"/>
+    <workbookView windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>目标</t>
   </si>
@@ -48,12 +48,18 @@
     <t>学到了第12章，先把前面的内容消化掉</t>
   </si>
   <si>
+    <t>已经阅读完毕</t>
+  </si>
+  <si>
     <t>1.2 《Googe 软件工程》</t>
   </si>
   <si>
     <t>1.3 《重构》</t>
   </si>
   <si>
+    <t>暂时没有用到</t>
+  </si>
+  <si>
     <t>1.4 《Vim 实用技巧》</t>
   </si>
   <si>
@@ -78,7 +84,10 @@
     <t>2.1 学习完计算机系统结构的课程《Nand2Tetris》</t>
   </si>
   <si>
-    <t>阅读教科书吧，学到了4.2.3</t>
+    <t>阅读教科书吧，学到了第 10 章了</t>
+  </si>
+  <si>
+    <t>花了接近两个月的时间学完了并做完了作业</t>
   </si>
   <si>
     <t>2.2 学习完南大的24年的操作系统课，并完成相关的作业</t>
@@ -95,11 +104,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,11 +139,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,114 +255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +284,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,31 +308,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,133 +404,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,15 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -595,6 +595,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,21 +615,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,147 +644,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,7 +1200,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1252,45 +1261,53 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.7</v>
-      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
     </row>
     <row r="5" ht="15.75" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" ht="15.75" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1302,7 +1319,7 @@
     <row r="7" ht="15.75" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1314,13 +1331,13 @@
     <row r="8" ht="15.75" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1328,46 +1345,49 @@
     <row r="9" ht="45" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:8">
+    <row r="10" ht="45" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" ht="31.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1375,10 +1395,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:8">
       <c r="A12" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>

--- a/docs/OKR/2024Q3OKR.xlsx
+++ b/docs/OKR/2024Q3OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18480"/>
+    <workbookView windowHeight="18330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>目标</t>
   </si>
@@ -54,6 +54,9 @@
     <t>1.2 《Googe 软件工程》</t>
   </si>
   <si>
+    <t>已经阅读到16章了，可以慢慢阅读，这个比较容易理解些</t>
+  </si>
+  <si>
     <t>1.3 《重构》</t>
   </si>
   <si>
@@ -63,6 +66,12 @@
     <t>1.4 《Vim 实用技巧》</t>
   </si>
   <si>
+    <t>快读完了</t>
+  </si>
+  <si>
+    <t>已经阅读完毕，需要实践吧</t>
+  </si>
+  <si>
     <t>1.5 《算法导论》</t>
   </si>
   <si>
@@ -93,10 +102,28 @@
     <t>2.2 学习完南大的24年的操作系统课，并完成相关的作业</t>
   </si>
   <si>
+    <t>暂时放弃</t>
+  </si>
+  <si>
+    <t>时间不够完成，目前业务学习比较多些，学习比较麻烦</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
     <t>3 锻炼</t>
   </si>
   <si>
     <t>全年跑 500 km</t>
+  </si>
+  <si>
+    <t>50km的跑步估计没有完成，但中间加入了30-40km的自行车</t>
+  </si>
+  <si>
+    <t>评分</t>
+  </si>
+  <si>
+    <t>截止到2024年9月29日，上面的任务共 9 分，完成了 5.7 分，所以有 63 分，勉强及格吧，中间还看了其他的书，算是一种补偿</t>
   </si>
 </sst>
 </file>
@@ -104,17 +131,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -125,46 +152,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -172,23 +192,98 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -196,76 +291,8 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,24 +305,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,145 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,39 +585,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,16 +599,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +639,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -646,16 +673,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,152 +691,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +870,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,55 +881,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1197,19 +1227,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="48.5" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="15.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="48.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="17.6222222222222" customWidth="1"/>
+    <col min="6" max="6" width="21.3777777777778" customWidth="1"/>
+    <col min="8" max="8" width="19.1259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1230,7 +1260,7 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3"/>
@@ -1250,7 +1280,7 @@
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1274,26 +1304,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="45" spans="1:6">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" ht="15.75" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7">
         <v>0.4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1304,22 +1338,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:8">
+    <row r="6" ht="30" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" ht="15.75" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1328,16 +1370,16 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" ht="15.75" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1345,33 +1387,33 @@
     <row r="9" ht="45" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="10" ht="45" spans="1:8">
+    <row r="10" ht="30" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>0.8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1379,39 +1421,68 @@
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="11" ht="31.5" spans="1:8">
+    <row r="11" ht="30" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" ht="15.75" spans="1:8">
+    <row r="12" ht="45" spans="1:8">
       <c r="A12" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A11"/>
